--- a/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ALOCACAO_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ALOCACAO_P1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="345" windowWidth="14700" windowHeight="5355" activeTab="2"/>
+    <workbookView xWindow="915" yWindow="405" windowWidth="14700" windowHeight="5295" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="161">
   <si>
     <t>Schema</t>
   </si>
@@ -1034,18 +1034,12 @@
     <t>IND_APTO_PAGAMENTO</t>
   </si>
   <si>
-    <t>Carregar com valor 3</t>
-  </si>
-  <si>
     <t>Carregar com Null</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>CHAR</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -1062,6 +1056,9 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>Verificar com Sylvio o valor correto a ser preenchido</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1889,6 +1886,63 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1898,104 +1952,92 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2006,50 +2048,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2698,28 +2698,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="106"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="109"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="106"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
@@ -2728,17 +2728,17 @@
       <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110" t="s">
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="108"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
@@ -2747,22 +2747,22 @@
       <c r="C12" s="29">
         <v>41238</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="113"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
       <c r="G13" s="98"/>
       <c r="H13" s="99"/>
       <c r="I13" s="99"/>
@@ -2771,9 +2771,9 @@
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="98"/>
       <c r="H14" s="99"/>
       <c r="I14" s="99"/>
@@ -2782,9 +2782,9 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="98"/>
       <c r="H15" s="99"/>
       <c r="I15" s="99"/>
@@ -2793,9 +2793,9 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
       <c r="G16" s="98"/>
       <c r="H16" s="99"/>
       <c r="I16" s="99"/>
@@ -2804,34 +2804,27 @@
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="97"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="116"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="97"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2842,6 +2835,13 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2901,17 +2901,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
@@ -2920,37 +2920,37 @@
       <c r="C7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="52"/>
       <c r="C8" s="53"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="52"/>
       <c r="C9" s="53"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
     </row>
     <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -2964,17 +2964,17 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
     </row>
     <row r="12" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="47" t="s">
@@ -2986,38 +2986,38 @@
       <c r="D12" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="129"/>
-      <c r="G12" s="127" t="s">
+      <c r="F12" s="128"/>
+      <c r="G12" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="129"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="128"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="9"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="9"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
     </row>
     <row r="15" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
@@ -3031,11 +3031,11 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="46" t="s">
@@ -3070,17 +3070,17 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
     </row>
     <row r="22" spans="2:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B22" s="51" t="s">
@@ -3092,52 +3092,59 @@
       <c r="D22" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122" t="s">
+      <c r="F22" s="121"/>
+      <c r="G22" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:J23"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
@@ -3152,13 +3159,6 @@
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:J23"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3176,10 +3176,10 @@
   <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="I58" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="N58" sqref="N58:N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3223,39 +3223,39 @@
       <c r="T1" s="56"/>
     </row>
     <row r="2" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="144"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="140" t="s">
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -3366,10 +3366,10 @@
       </c>
       <c r="H4" s="70"/>
       <c r="I4" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J4" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K4" s="70">
         <v>40</v>
@@ -3398,10 +3398,10 @@
       </c>
       <c r="V4" s="69"/>
       <c r="W4" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X4" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y4" s="70">
         <v>40</v>
@@ -3433,10 +3433,10 @@
       </c>
       <c r="H5" s="70"/>
       <c r="I5" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K5" s="70">
         <v>80</v>
@@ -3465,10 +3465,10 @@
       </c>
       <c r="V5" s="69"/>
       <c r="W5" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X5" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y5" s="70">
         <v>80</v>
@@ -3499,10 +3499,10 @@
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J6" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K6" s="70">
         <v>3</v>
@@ -3531,10 +3531,10 @@
       </c>
       <c r="V6" s="69"/>
       <c r="W6" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X6" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y6" s="70">
         <v>3</v>
@@ -3565,10 +3565,10 @@
       </c>
       <c r="H7" s="70"/>
       <c r="I7" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J7" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K7" s="70">
         <v>10</v>
@@ -3597,10 +3597,10 @@
       </c>
       <c r="V7" s="69"/>
       <c r="W7" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X7" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y7" s="70">
         <v>10</v>
@@ -3632,10 +3632,10 @@
       </c>
       <c r="H8" s="70"/>
       <c r="I8" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K8" s="70">
         <v>10</v>
@@ -3664,10 +3664,10 @@
       </c>
       <c r="V8" s="69"/>
       <c r="W8" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X8" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y8" s="70">
         <v>10</v>
@@ -3699,10 +3699,10 @@
       </c>
       <c r="H9" s="70"/>
       <c r="I9" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="J9" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="K9" s="72">
         <v>2</v>
@@ -3733,10 +3733,10 @@
       </c>
       <c r="V9" s="69"/>
       <c r="W9" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X9" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="X9" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="Y9" s="72">
         <v>2</v>
@@ -3770,10 +3770,10 @@
       </c>
       <c r="H10" s="70"/>
       <c r="I10" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J10" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K10" s="70">
         <v>10</v>
@@ -3802,10 +3802,10 @@
       </c>
       <c r="V10" s="69"/>
       <c r="W10" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X10" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y10" s="70">
         <v>10</v>
@@ -3837,10 +3837,10 @@
       </c>
       <c r="H11" s="70"/>
       <c r="I11" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J11" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K11" s="70">
         <v>10</v>
@@ -3869,10 +3869,10 @@
       </c>
       <c r="V11" s="69"/>
       <c r="W11" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X11" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y11" s="70">
         <v>10</v>
@@ -3903,10 +3903,10 @@
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J12" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K12" s="70">
         <v>5</v>
@@ -3935,10 +3935,10 @@
       </c>
       <c r="V12" s="69"/>
       <c r="W12" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X12" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y12" s="70">
         <v>5</v>
@@ -3969,10 +3969,10 @@
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K13" s="70">
         <v>5</v>
@@ -4001,10 +4001,10 @@
       </c>
       <c r="V13" s="69"/>
       <c r="W13" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X13" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y13" s="70">
         <v>5</v>
@@ -4035,10 +4035,10 @@
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K14" s="72">
         <v>1</v>
@@ -4067,10 +4067,10 @@
       </c>
       <c r="V14" s="69"/>
       <c r="W14" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X14" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y14" s="72">
         <v>1</v>
@@ -4101,10 +4101,10 @@
       </c>
       <c r="H15" s="70"/>
       <c r="I15" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="J15" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="K15" s="72">
         <v>4</v>
@@ -4135,10 +4135,10 @@
       </c>
       <c r="V15" s="69"/>
       <c r="W15" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="X15" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="Y15" s="72">
         <v>4</v>
@@ -4172,10 +4172,10 @@
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K16" s="72">
         <v>1</v>
@@ -4204,10 +4204,10 @@
       </c>
       <c r="V16" s="70"/>
       <c r="W16" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X16" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y16" s="72">
         <v>1</v>
@@ -4239,10 +4239,10 @@
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="J17" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="K17" s="70"/>
       <c r="L17" s="70"/>
@@ -4269,13 +4269,17 @@
       </c>
       <c r="V17" s="70"/>
       <c r="W17" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X17" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="X17" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
+      <c r="Y17" s="70">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="70">
+        <v>0</v>
+      </c>
       <c r="AA17" s="70"/>
       <c r="AB17" s="70"/>
       <c r="AC17" s="70"/>
@@ -4302,10 +4306,10 @@
       </c>
       <c r="H18" s="70"/>
       <c r="I18" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J18" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K18" s="70"/>
       <c r="L18" s="70"/>
@@ -4332,10 +4336,10 @@
       </c>
       <c r="V18" s="70"/>
       <c r="W18" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X18" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y18" s="70"/>
       <c r="Z18" s="70"/>
@@ -4365,10 +4369,10 @@
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J19" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K19" s="70">
         <v>11</v>
@@ -4397,10 +4401,10 @@
       </c>
       <c r="V19" s="70"/>
       <c r="W19" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X19" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y19" s="70">
         <v>11</v>
@@ -4432,13 +4436,17 @@
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="J20" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
+      <c r="K20" s="70">
+        <v>6</v>
+      </c>
+      <c r="L20" s="70">
+        <v>0</v>
+      </c>
       <c r="M20" s="70"/>
       <c r="N20" s="70" t="s">
         <v>100</v>
@@ -4462,13 +4470,17 @@
       </c>
       <c r="V20" s="70"/>
       <c r="W20" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X20" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="X20" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
+      <c r="Y20" s="70">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="70">
+        <v>0</v>
+      </c>
       <c r="AA20" s="70"/>
       <c r="AB20" s="70"/>
       <c r="AC20" s="70"/>
@@ -4495,10 +4507,10 @@
       </c>
       <c r="H21" s="70"/>
       <c r="I21" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="J21" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="K21" s="70"/>
       <c r="L21" s="70"/>
@@ -4525,10 +4537,10 @@
       </c>
       <c r="V21" s="70"/>
       <c r="W21" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X21" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="X21" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="Y21" s="70"/>
       <c r="Z21" s="70"/>
@@ -4558,13 +4570,13 @@
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="J22" s="69" t="s">
-        <v>159</v>
-      </c>
       <c r="K22" s="72">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L22" s="72">
         <v>0</v>
@@ -4592,13 +4604,13 @@
       </c>
       <c r="V22" s="70"/>
       <c r="W22" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X22" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="X22" s="69" t="s">
-        <v>159</v>
-      </c>
       <c r="Y22" s="72">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z22" s="72">
         <v>0</v>
@@ -4629,10 +4641,10 @@
       </c>
       <c r="H23" s="70"/>
       <c r="I23" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K23" s="70">
         <v>1</v>
@@ -4661,10 +4673,10 @@
       </c>
       <c r="V23" s="70"/>
       <c r="W23" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X23" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y23" s="70">
         <v>1</v>
@@ -4696,10 +4708,10 @@
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J24" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="J24" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="K24" s="72">
         <v>8</v>
@@ -4730,10 +4742,10 @@
       </c>
       <c r="V24" s="70"/>
       <c r="W24" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X24" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="X24" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="Y24" s="72">
         <v>8</v>
@@ -4767,10 +4779,10 @@
       </c>
       <c r="H25" s="70"/>
       <c r="I25" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K25" s="70">
         <v>5</v>
@@ -4799,10 +4811,10 @@
       </c>
       <c r="V25" s="70"/>
       <c r="W25" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X25" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y25" s="70">
         <v>5</v>
@@ -4834,10 +4846,10 @@
       </c>
       <c r="H26" s="70"/>
       <c r="I26" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K26" s="70">
         <v>10</v>
@@ -4866,10 +4878,10 @@
       </c>
       <c r="V26" s="70"/>
       <c r="W26" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X26" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y26" s="70">
         <v>10</v>
@@ -4901,10 +4913,10 @@
       </c>
       <c r="H27" s="70"/>
       <c r="I27" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K27" s="70">
         <v>2</v>
@@ -4933,10 +4945,10 @@
       </c>
       <c r="V27" s="70"/>
       <c r="W27" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X27" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y27" s="70">
         <v>2</v>
@@ -4968,10 +4980,10 @@
       </c>
       <c r="H28" s="70"/>
       <c r="I28" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J28" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K28" s="70">
         <v>15</v>
@@ -5000,10 +5012,10 @@
       </c>
       <c r="V28" s="70"/>
       <c r="W28" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X28" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y28" s="70">
         <v>15</v>
@@ -5035,10 +5047,10 @@
       </c>
       <c r="H29" s="70"/>
       <c r="I29" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J29" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K29" s="70">
         <v>2</v>
@@ -5067,10 +5079,10 @@
       </c>
       <c r="V29" s="70"/>
       <c r="W29" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X29" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y29" s="70">
         <v>2</v>
@@ -5102,10 +5114,10 @@
       </c>
       <c r="H30" s="70"/>
       <c r="I30" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K30" s="70">
         <v>5</v>
@@ -5134,10 +5146,10 @@
       </c>
       <c r="V30" s="70"/>
       <c r="W30" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X30" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y30" s="70">
         <v>5</v>
@@ -5169,10 +5181,10 @@
       </c>
       <c r="H31" s="70"/>
       <c r="I31" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J31" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="J31" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="K31" s="72">
         <v>11</v>
@@ -5203,10 +5215,10 @@
       </c>
       <c r="V31" s="70"/>
       <c r="W31" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X31" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="X31" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="Y31" s="72">
         <v>11</v>
@@ -5240,10 +5252,10 @@
       </c>
       <c r="H32" s="70"/>
       <c r="I32" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K32" s="70">
         <v>1</v>
@@ -5272,10 +5284,10 @@
       </c>
       <c r="V32" s="70"/>
       <c r="W32" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X32" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y32" s="70">
         <v>1</v>
@@ -5307,10 +5319,10 @@
       </c>
       <c r="H33" s="70"/>
       <c r="I33" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="J33" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="K33" s="70"/>
       <c r="L33" s="70"/>
@@ -5337,10 +5349,10 @@
       </c>
       <c r="V33" s="70"/>
       <c r="W33" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X33" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="X33" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="Y33" s="70"/>
       <c r="Z33" s="70"/>
@@ -5370,10 +5382,10 @@
       </c>
       <c r="H34" s="70"/>
       <c r="I34" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J34" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K34" s="70"/>
       <c r="L34" s="70"/>
@@ -5400,10 +5412,10 @@
       </c>
       <c r="V34" s="70"/>
       <c r="W34" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X34" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y34" s="70"/>
       <c r="Z34" s="70"/>
@@ -5433,10 +5445,10 @@
       </c>
       <c r="H35" s="70"/>
       <c r="I35" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J35" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K35" s="70"/>
       <c r="L35" s="70"/>
@@ -5463,10 +5475,10 @@
       </c>
       <c r="V35" s="70"/>
       <c r="W35" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X35" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y35" s="70"/>
       <c r="Z35" s="70"/>
@@ -5496,10 +5508,10 @@
       </c>
       <c r="H36" s="70"/>
       <c r="I36" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J36" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="J36" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="K36" s="72">
         <v>5</v>
@@ -5530,10 +5542,10 @@
       </c>
       <c r="V36" s="70"/>
       <c r="W36" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X36" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="X36" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="Y36" s="72">
         <v>5</v>
@@ -5557,10 +5569,10 @@
       </c>
       <c r="H37" s="70"/>
       <c r="I37" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" s="69" t="s">
         <v>156</v>
-      </c>
-      <c r="J37" s="69" t="s">
-        <v>158</v>
       </c>
       <c r="K37" s="70">
         <v>100</v>
@@ -5589,10 +5601,10 @@
       </c>
       <c r="V37" s="70"/>
       <c r="W37" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X37" s="69" t="s">
         <v>156</v>
-      </c>
-      <c r="X37" s="69" t="s">
-        <v>158</v>
       </c>
       <c r="Y37" s="70">
         <v>100</v>
@@ -5624,10 +5636,10 @@
       </c>
       <c r="H38" s="70"/>
       <c r="I38" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J38" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="J38" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="K38" s="70">
         <v>6</v>
@@ -5658,10 +5670,10 @@
       </c>
       <c r="V38" s="70"/>
       <c r="W38" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X38" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="X38" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="Y38" s="70">
         <v>6</v>
@@ -5695,10 +5707,10 @@
       </c>
       <c r="H39" s="70"/>
       <c r="I39" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J39" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K39" s="70">
         <v>1</v>
@@ -5727,10 +5739,10 @@
       </c>
       <c r="V39" s="70"/>
       <c r="W39" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X39" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y39" s="70">
         <v>1</v>
@@ -5762,10 +5774,10 @@
       </c>
       <c r="H40" s="70"/>
       <c r="I40" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J40" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K40" s="70">
         <v>40</v>
@@ -5794,10 +5806,10 @@
       </c>
       <c r="V40" s="70"/>
       <c r="W40" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X40" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y40" s="70">
         <v>40</v>
@@ -5829,10 +5841,10 @@
       </c>
       <c r="H41" s="70"/>
       <c r="I41" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J41" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K41" s="70"/>
       <c r="L41" s="70"/>
@@ -5859,10 +5871,10 @@
       </c>
       <c r="V41" s="70"/>
       <c r="W41" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X41" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y41" s="70"/>
       <c r="Z41" s="70"/>
@@ -5892,10 +5904,10 @@
       </c>
       <c r="H42" s="70"/>
       <c r="I42" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J42" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K42" s="70"/>
       <c r="L42" s="70"/>
@@ -5922,10 +5934,10 @@
       </c>
       <c r="V42" s="70"/>
       <c r="W42" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X42" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y42" s="70"/>
       <c r="Z42" s="70"/>
@@ -5955,10 +5967,10 @@
       </c>
       <c r="H43" s="70"/>
       <c r="I43" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J43" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K43" s="70">
         <v>1</v>
@@ -5987,10 +5999,10 @@
       </c>
       <c r="V43" s="70"/>
       <c r="W43" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X43" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y43" s="70">
         <v>1</v>
@@ -6022,13 +6034,17 @@
       </c>
       <c r="H44" s="70"/>
       <c r="I44" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J44" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="J44" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
+      <c r="K44" s="70">
+        <v>3</v>
+      </c>
+      <c r="L44" s="70">
+        <v>0</v>
+      </c>
       <c r="M44" s="70"/>
       <c r="N44" s="70" t="s">
         <v>100</v>
@@ -6052,13 +6068,17 @@
       </c>
       <c r="V44" s="70"/>
       <c r="W44" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X44" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="X44" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y44" s="70"/>
-      <c r="Z44" s="70"/>
+      <c r="Y44" s="70">
+        <v>3</v>
+      </c>
+      <c r="Z44" s="70">
+        <v>0</v>
+      </c>
       <c r="AA44" s="70"/>
       <c r="AB44" s="70"/>
       <c r="AC44" s="70"/>
@@ -6085,10 +6105,10 @@
       </c>
       <c r="H45" s="70"/>
       <c r="I45" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J45" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K45" s="70"/>
       <c r="L45" s="70"/>
@@ -6115,10 +6135,10 @@
       </c>
       <c r="V45" s="70"/>
       <c r="W45" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X45" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y45" s="70"/>
       <c r="Z45" s="70"/>
@@ -6148,10 +6168,10 @@
       </c>
       <c r="H46" s="70"/>
       <c r="I46" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J46" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K46" s="70"/>
       <c r="L46" s="70"/>
@@ -6178,10 +6198,10 @@
       </c>
       <c r="V46" s="70"/>
       <c r="W46" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X46" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y46" s="70"/>
       <c r="Z46" s="70"/>
@@ -6211,10 +6231,10 @@
       </c>
       <c r="H47" s="70"/>
       <c r="I47" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J47" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K47" s="70">
         <v>1</v>
@@ -6243,10 +6263,10 @@
       </c>
       <c r="V47" s="70"/>
       <c r="W47" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X47" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y47" s="70">
         <v>1</v>
@@ -6278,10 +6298,10 @@
       </c>
       <c r="H48" s="70"/>
       <c r="I48" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="J48" s="70" t="s">
-        <v>155</v>
+        <v>155</v>
+      </c>
+      <c r="J48" s="69" t="s">
+        <v>156</v>
       </c>
       <c r="K48" s="70">
         <v>1</v>
@@ -6310,10 +6330,10 @@
       </c>
       <c r="V48" s="70"/>
       <c r="W48" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="X48" s="70" t="s">
-        <v>155</v>
+        <v>155</v>
+      </c>
+      <c r="X48" s="69" t="s">
+        <v>156</v>
       </c>
       <c r="Y48" s="70">
         <v>1</v>
@@ -6345,10 +6365,10 @@
       </c>
       <c r="H49" s="70"/>
       <c r="I49" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J49" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K49" s="70">
         <v>1</v>
@@ -6377,10 +6397,10 @@
       </c>
       <c r="V49" s="70"/>
       <c r="W49" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X49" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y49" s="70">
         <v>1</v>
@@ -6412,10 +6432,10 @@
       </c>
       <c r="H50" s="70"/>
       <c r="I50" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J50" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="J50" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="K50" s="70">
         <v>4</v>
@@ -6446,10 +6466,10 @@
       </c>
       <c r="V50" s="70"/>
       <c r="W50" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X50" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="X50" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="Y50" s="70">
         <v>4</v>
@@ -6483,10 +6503,10 @@
       </c>
       <c r="H51" s="70"/>
       <c r="I51" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J51" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="J51" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="K51" s="70">
         <v>6</v>
@@ -6517,10 +6537,10 @@
       </c>
       <c r="V51" s="70"/>
       <c r="W51" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X51" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="X51" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="Y51" s="70">
         <v>6</v>
@@ -6554,10 +6574,10 @@
       </c>
       <c r="H52" s="70"/>
       <c r="I52" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J52" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K52" s="70"/>
       <c r="L52" s="70"/>
@@ -6584,10 +6604,10 @@
       </c>
       <c r="V52" s="70"/>
       <c r="W52" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X52" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y52" s="70"/>
       <c r="Z52" s="70"/>
@@ -6609,10 +6629,10 @@
       </c>
       <c r="H53" s="70"/>
       <c r="I53" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J53" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K53" s="70">
         <v>1</v>
@@ -6641,10 +6661,10 @@
       </c>
       <c r="V53" s="70"/>
       <c r="W53" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X53" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y53" s="70">
         <v>1</v>
@@ -6668,10 +6688,10 @@
       </c>
       <c r="H54" s="70"/>
       <c r="I54" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J54" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K54" s="70">
         <v>30</v>
@@ -6700,10 +6720,10 @@
       </c>
       <c r="V54" s="70"/>
       <c r="W54" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X54" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y54" s="70">
         <v>30</v>
@@ -6726,10 +6746,10 @@
       </c>
       <c r="H55" s="70"/>
       <c r="I55" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J55" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K55" s="70">
         <v>15</v>
@@ -6758,10 +6778,10 @@
       </c>
       <c r="V55" s="70"/>
       <c r="W55" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X55" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y55" s="70">
         <v>15</v>
@@ -6792,10 +6812,10 @@
       </c>
       <c r="H56" s="70"/>
       <c r="I56" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J56" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="J56" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="K56" s="72">
         <v>5</v>
@@ -6809,7 +6829,7 @@
       </c>
       <c r="O56" s="66"/>
       <c r="P56" s="67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q56" s="91" t="s">
         <v>99</v>
@@ -6828,10 +6848,10 @@
       </c>
       <c r="V56" s="70"/>
       <c r="W56" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X56" s="69" t="s">
         <v>157</v>
-      </c>
-      <c r="X56" s="69" t="s">
-        <v>159</v>
       </c>
       <c r="Y56" s="72">
         <v>5</v>
@@ -6856,11 +6876,17 @@
       </c>
       <c r="H57" s="70"/>
       <c r="I57" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J57" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
+      <c r="K57" s="70">
+        <v>6</v>
+      </c>
+      <c r="L57" s="70">
+        <v>2</v>
+      </c>
       <c r="M57" s="70"/>
       <c r="N57" s="84" t="s">
         <v>141</v>
@@ -6884,11 +6910,17 @@
       </c>
       <c r="V57" s="70"/>
       <c r="W57" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="X57" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="X57" s="70"/>
-      <c r="Y57" s="70"/>
-      <c r="Z57" s="70"/>
+      <c r="Y57" s="70">
+        <v>6</v>
+      </c>
+      <c r="Z57" s="70">
+        <v>2</v>
+      </c>
       <c r="AA57" s="70"/>
       <c r="AB57" s="70"/>
       <c r="AC57" s="70"/>
@@ -6914,50 +6946,50 @@
       </c>
       <c r="H58" s="73"/>
       <c r="I58" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J58" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K58" s="70">
         <v>5</v>
       </c>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
-      <c r="N58" s="131" t="s">
+      <c r="N58" s="146" t="s">
         <v>147</v>
       </c>
       <c r="O58" s="137"/>
       <c r="P58" s="137"/>
-      <c r="Q58" s="146" t="s">
-        <v>99</v>
-      </c>
-      <c r="R58" s="134" t="s">
-        <v>98</v>
-      </c>
-      <c r="S58" s="146" t="s">
-        <v>99</v>
-      </c>
-      <c r="T58" s="134" t="s">
+      <c r="Q58" s="140" t="s">
+        <v>99</v>
+      </c>
+      <c r="R58" s="143" t="s">
+        <v>98</v>
+      </c>
+      <c r="S58" s="140" t="s">
+        <v>99</v>
+      </c>
+      <c r="T58" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="U58" s="134" t="s">
+      <c r="U58" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="V58" s="131"/>
+      <c r="V58" s="146"/>
       <c r="W58" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X58" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y58" s="70">
         <v>5</v>
       </c>
       <c r="Z58" s="70"/>
-      <c r="AA58" s="131"/>
-      <c r="AB58" s="131"/>
-      <c r="AC58" s="131"/>
+      <c r="AA58" s="146"/>
+      <c r="AB58" s="146"/>
+      <c r="AC58" s="146"/>
     </row>
     <row r="59" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="70" t="s">
@@ -6980,38 +7012,38 @@
       </c>
       <c r="H59" s="73"/>
       <c r="I59" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J59" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K59" s="70">
         <v>5</v>
       </c>
       <c r="L59" s="70"/>
       <c r="M59" s="70"/>
-      <c r="N59" s="132"/>
+      <c r="N59" s="147"/>
       <c r="O59" s="138"/>
       <c r="P59" s="138"/>
-      <c r="Q59" s="147"/>
-      <c r="R59" s="135"/>
-      <c r="S59" s="147"/>
-      <c r="T59" s="135"/>
-      <c r="U59" s="135"/>
-      <c r="V59" s="132"/>
+      <c r="Q59" s="141"/>
+      <c r="R59" s="144"/>
+      <c r="S59" s="141"/>
+      <c r="T59" s="144"/>
+      <c r="U59" s="144"/>
+      <c r="V59" s="147"/>
       <c r="W59" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X59" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y59" s="70">
         <v>5</v>
       </c>
       <c r="Z59" s="70"/>
-      <c r="AA59" s="132"/>
-      <c r="AB59" s="132"/>
-      <c r="AC59" s="132"/>
+      <c r="AA59" s="147"/>
+      <c r="AB59" s="147"/>
+      <c r="AC59" s="147"/>
     </row>
     <row r="60" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="70" t="s">
@@ -7034,38 +7066,38 @@
       </c>
       <c r="H60" s="70"/>
       <c r="I60" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J60" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K60" s="70">
         <v>1</v>
       </c>
       <c r="L60" s="70"/>
       <c r="M60" s="70"/>
-      <c r="N60" s="133"/>
+      <c r="N60" s="148"/>
       <c r="O60" s="139"/>
       <c r="P60" s="139"/>
-      <c r="Q60" s="148"/>
-      <c r="R60" s="136"/>
-      <c r="S60" s="148"/>
-      <c r="T60" s="136"/>
-      <c r="U60" s="136"/>
-      <c r="V60" s="133"/>
+      <c r="Q60" s="142"/>
+      <c r="R60" s="145"/>
+      <c r="S60" s="142"/>
+      <c r="T60" s="145"/>
+      <c r="U60" s="145"/>
+      <c r="V60" s="148"/>
       <c r="W60" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X60" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y60" s="70">
         <v>1</v>
       </c>
       <c r="Z60" s="70"/>
-      <c r="AA60" s="133"/>
-      <c r="AB60" s="133"/>
-      <c r="AC60" s="133"/>
+      <c r="AA60" s="148"/>
+      <c r="AB60" s="148"/>
+      <c r="AC60" s="148"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B61" s="85"/>
@@ -7080,10 +7112,10 @@
       </c>
       <c r="H61" s="70"/>
       <c r="I61" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J61" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K61" s="70">
         <v>1</v>
@@ -7105,17 +7137,17 @@
         <v>99</v>
       </c>
       <c r="T61" s="71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U61" s="71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V61" s="92"/>
       <c r="W61" s="70" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="X61" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y61" s="70">
         <v>1</v>
@@ -7138,18 +7170,18 @@
       </c>
       <c r="H62" s="70"/>
       <c r="I62" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J62" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K62" s="70">
         <v>2</v>
       </c>
       <c r="L62" s="70"/>
       <c r="M62" s="70"/>
-      <c r="N62" s="70" t="s">
-        <v>152</v>
+      <c r="N62" s="149" t="s">
+        <v>160</v>
       </c>
       <c r="O62" s="66"/>
       <c r="P62" s="67"/>
@@ -7170,10 +7202,10 @@
       </c>
       <c r="V62" s="92"/>
       <c r="W62" s="70" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="X62" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y62" s="70">
         <v>2</v>
@@ -7196,16 +7228,16 @@
       </c>
       <c r="H63" s="70"/>
       <c r="I63" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J63" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K63" s="70"/>
       <c r="L63" s="70"/>
       <c r="M63" s="70"/>
       <c r="N63" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O63" s="66"/>
       <c r="P63" s="67"/>
@@ -7226,10 +7258,10 @@
       </c>
       <c r="V63" s="92"/>
       <c r="W63" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X63" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y63" s="70"/>
       <c r="Z63" s="70"/>
@@ -8181,6 +8213,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AC58:AC60"/>
+    <mergeCell ref="U58:U60"/>
+    <mergeCell ref="V58:V60"/>
+    <mergeCell ref="N58:N60"/>
+    <mergeCell ref="O58:O60"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -8191,11 +8228,6 @@
     <mergeCell ref="T58:T60"/>
     <mergeCell ref="AA58:AA60"/>
     <mergeCell ref="AB58:AB60"/>
-    <mergeCell ref="AC58:AC60"/>
-    <mergeCell ref="U58:U60"/>
-    <mergeCell ref="V58:V60"/>
-    <mergeCell ref="N58:N60"/>
-    <mergeCell ref="O58:O60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8463,16 +8495,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8521,39 +8552,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8568,10 +8585,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ALOCACAO_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ALOCACAO_P1.xlsx
@@ -1058,14 +1058,15 @@
     <t>`</t>
   </si>
   <si>
-    <t>Verificar com Sylvio o valor correto a ser preenchido</t>
+    <t>Carregar com 1 se for uma alocação nova no destino ou se for uma atualização de uma alocação existente que não seja um campo chave.
+Carregar com 3 caso a alocação tenha que ser descartada do destino.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1211,6 +1212,12 @@
       <sz val="10"/>
       <color rgb="FF101060"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1886,6 +1893,24 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1895,15 +1920,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1943,14 +1959,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1958,9 +1971,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1991,8 +2001,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2012,15 +2046,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2030,26 +2055,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2698,28 +2705,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="103"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="106"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
@@ -2728,17 +2735,17 @@
       <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107" t="s">
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="108"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
@@ -2747,22 +2754,22 @@
       <c r="C12" s="29">
         <v>41238</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="116"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
       <c r="G13" s="98"/>
       <c r="H13" s="99"/>
       <c r="I13" s="99"/>
@@ -2771,9 +2778,9 @@
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="98"/>
       <c r="H14" s="99"/>
       <c r="I14" s="99"/>
@@ -2782,9 +2789,9 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="98"/>
       <c r="H15" s="99"/>
       <c r="I15" s="99"/>
@@ -2793,9 +2800,9 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="98"/>
       <c r="H16" s="99"/>
       <c r="I16" s="99"/>
@@ -2804,27 +2811,34 @@
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2835,13 +2849,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2901,17 +2908,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
@@ -2920,37 +2927,37 @@
       <c r="C7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="52"/>
       <c r="C8" s="53"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="52"/>
       <c r="C9" s="53"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
     </row>
     <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -2964,17 +2971,17 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="47" t="s">
@@ -2986,38 +2993,38 @@
       <c r="D12" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="126" t="s">
+      <c r="E12" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="128"/>
-      <c r="G12" s="126" t="s">
+      <c r="F12" s="129"/>
+      <c r="G12" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="9"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="9"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
     </row>
     <row r="15" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
@@ -3031,11 +3038,11 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="46" t="s">
@@ -3070,17 +3077,17 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
     </row>
     <row r="22" spans="2:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B22" s="51" t="s">
@@ -3092,59 +3099,52 @@
       <c r="D22" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121" t="s">
+      <c r="F22" s="122"/>
+      <c r="G22" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="130"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:J23"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
@@ -3159,6 +3159,13 @@
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:J23"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3176,10 +3183,10 @@
   <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I58" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="H58" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N58" sqref="N58:N60"/>
+      <selection pane="bottomRight" activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3223,39 +3230,39 @@
       <c r="T1" s="56"/>
     </row>
     <row r="2" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="135" t="s">
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="131" t="s">
+      <c r="O2" s="144"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="141"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -6956,27 +6963,27 @@
       </c>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
-      <c r="N58" s="146" t="s">
+      <c r="N58" s="131" t="s">
         <v>147</v>
       </c>
       <c r="O58" s="137"/>
       <c r="P58" s="137"/>
-      <c r="Q58" s="140" t="s">
-        <v>99</v>
-      </c>
-      <c r="R58" s="143" t="s">
-        <v>98</v>
-      </c>
-      <c r="S58" s="140" t="s">
-        <v>99</v>
-      </c>
-      <c r="T58" s="143" t="s">
+      <c r="Q58" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="R58" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="S58" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="T58" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="U58" s="143" t="s">
+      <c r="U58" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="V58" s="146"/>
+      <c r="V58" s="131"/>
       <c r="W58" s="70" t="s">
         <v>155</v>
       </c>
@@ -6987,9 +6994,9 @@
         <v>5</v>
       </c>
       <c r="Z58" s="70"/>
-      <c r="AA58" s="146"/>
-      <c r="AB58" s="146"/>
-      <c r="AC58" s="146"/>
+      <c r="AA58" s="131"/>
+      <c r="AB58" s="131"/>
+      <c r="AC58" s="131"/>
     </row>
     <row r="59" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="70" t="s">
@@ -7022,15 +7029,15 @@
       </c>
       <c r="L59" s="70"/>
       <c r="M59" s="70"/>
-      <c r="N59" s="147"/>
+      <c r="N59" s="132"/>
       <c r="O59" s="138"/>
       <c r="P59" s="138"/>
-      <c r="Q59" s="141"/>
-      <c r="R59" s="144"/>
-      <c r="S59" s="141"/>
-      <c r="T59" s="144"/>
-      <c r="U59" s="144"/>
-      <c r="V59" s="147"/>
+      <c r="Q59" s="147"/>
+      <c r="R59" s="135"/>
+      <c r="S59" s="147"/>
+      <c r="T59" s="135"/>
+      <c r="U59" s="135"/>
+      <c r="V59" s="132"/>
       <c r="W59" s="70" t="s">
         <v>155</v>
       </c>
@@ -7041,9 +7048,9 @@
         <v>5</v>
       </c>
       <c r="Z59" s="70"/>
-      <c r="AA59" s="147"/>
-      <c r="AB59" s="147"/>
-      <c r="AC59" s="147"/>
+      <c r="AA59" s="132"/>
+      <c r="AB59" s="132"/>
+      <c r="AC59" s="132"/>
     </row>
     <row r="60" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="70" t="s">
@@ -7076,15 +7083,15 @@
       </c>
       <c r="L60" s="70"/>
       <c r="M60" s="70"/>
-      <c r="N60" s="148"/>
+      <c r="N60" s="133"/>
       <c r="O60" s="139"/>
       <c r="P60" s="139"/>
-      <c r="Q60" s="142"/>
-      <c r="R60" s="145"/>
-      <c r="S60" s="142"/>
-      <c r="T60" s="145"/>
-      <c r="U60" s="145"/>
-      <c r="V60" s="148"/>
+      <c r="Q60" s="148"/>
+      <c r="R60" s="136"/>
+      <c r="S60" s="148"/>
+      <c r="T60" s="136"/>
+      <c r="U60" s="136"/>
+      <c r="V60" s="133"/>
       <c r="W60" s="70" t="s">
         <v>155</v>
       </c>
@@ -7095,9 +7102,9 @@
         <v>1</v>
       </c>
       <c r="Z60" s="70"/>
-      <c r="AA60" s="148"/>
-      <c r="AB60" s="148"/>
-      <c r="AC60" s="148"/>
+      <c r="AA60" s="133"/>
+      <c r="AB60" s="133"/>
+      <c r="AC60" s="133"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B61" s="85"/>
@@ -7157,7 +7164,7 @@
       <c r="AB61" s="92"/>
       <c r="AC61" s="70"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="60" x14ac:dyDescent="0.2">
       <c r="B62" s="85"/>
       <c r="C62" s="85"/>
       <c r="D62" s="85"/>
@@ -7180,7 +7187,7 @@
       </c>
       <c r="L62" s="70"/>
       <c r="M62" s="70"/>
-      <c r="N62" s="149" t="s">
+      <c r="N62" s="70" t="s">
         <v>160</v>
       </c>
       <c r="O62" s="66"/>
@@ -7312,7 +7319,7 @@
       <c r="K65" s="63"/>
       <c r="L65" s="63"/>
       <c r="M65" s="60"/>
-      <c r="N65" s="64"/>
+      <c r="N65" s="149"/>
       <c r="O65" s="64"/>
       <c r="P65" s="64"/>
       <c r="Q65" s="64"/>
@@ -8213,11 +8220,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AC58:AC60"/>
-    <mergeCell ref="U58:U60"/>
-    <mergeCell ref="V58:V60"/>
-    <mergeCell ref="N58:N60"/>
-    <mergeCell ref="O58:O60"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -8228,6 +8230,11 @@
     <mergeCell ref="T58:T60"/>
     <mergeCell ref="AA58:AA60"/>
     <mergeCell ref="AB58:AB60"/>
+    <mergeCell ref="AC58:AC60"/>
+    <mergeCell ref="U58:U60"/>
+    <mergeCell ref="V58:V60"/>
+    <mergeCell ref="N58:N60"/>
+    <mergeCell ref="O58:O60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8495,15 +8502,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8552,25 +8560,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8585,24 +8607,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>